--- a/Resultados/Resultado_final_18.xlsx
+++ b/Resultados/Resultado_final_18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>17.328044224979422</v>
+        <v>17.262116248225382</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -135,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>23.738924930818172</v>
+        <v>23.67769743595575</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>14.752918225271303</v>
+        <v>14.68429139445821</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>12.29666715637509</v>
+        <v>12.215752612708229</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>17.806364786794656</v>
+        <v>17.727942938356442</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
@@ -191,7 +191,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>3.3107358894501462</v>
+        <v>3.2259170681955474</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -205,7 +205,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>2.1538260313385176</v>
+        <v>2.0684347964530749</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>9.4840759958911658</v>
+        <v>9.4043584241022007</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>5.5666934620510835</v>
+        <v>5.4872122839011297</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
@@ -247,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>9.0802777097033669</v>
+        <v>9.0035282016104965</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>4.1290767873376311</v>
+        <v>4.0466953965834707</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>5.6457849999906333</v>
+        <v>5.563134468829988</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>4.725838707856103</v>
+        <v>4.6427438858591765</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1984368857697187</v>
+        <v>1.1131539804094872</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
@@ -317,7 +317,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>1.3337850868021071</v>
+        <v>1.2484606147144179</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>2.8320371311032422</v>
+        <v>2.74993011337342</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>6.4677662163846987</v>
+        <v>6.3890881919837632</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>2.0261466907503616</v>
+        <v>1.9432551768959128</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>5.9528829730649644</v>
+        <v>5.8742020433996984</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>2.5077361822913264</v>
+        <v>2.4238759775443648</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>2.4795873073540027</v>
+        <v>2.3958861441605799</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>1.1668128333098309</v>
+        <v>1.0819989031569439</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>4</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>1.123155915698439</v>
+        <v>1.0381566252922283</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>4</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>1.8598824152418412</v>
+        <v>1.7757158580346428</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>1.3625200807593147</v>
+        <v>1.277947876667431</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>4</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>1.2660057533457347</v>
+        <v>1.181466015245304</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>4</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>1.3253415685596786</v>
+        <v>1.2406097640291553</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>4</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>1.513103104621188</v>
+        <v>1.4287804937813759</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>1.3826388997627856</v>
+        <v>1.2983002430515234</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>1.2554758803476542</v>
+        <v>1.1710920485537886</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>4</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>1.3298058473837482</v>
+        <v>1.245422547318868</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>1.3303822000318213</v>
+        <v>1.2458425025238651</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>4</v>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>1.2345317125620234</v>
+        <v>1.1496706760140118</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>1.7439397272433221</v>
+        <v>1.6599354397445933</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>4</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>1.4445480694458972</v>
+        <v>1.3601516579964414</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>4</v>

--- a/Resultados/Resultado_final_18.xlsx
+++ b/Resultados/Resultado_final_18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="416" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -107,10 +107,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>100</v>
+        <v>28.94698445859289</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
         <v>18</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>17.262116248225382</v>
+        <v>39.558216993653311</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -135,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>23.67769743595575</v>
+        <v>34.762463242137294</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>14.68429139445821</v>
+        <v>34.006513930276817</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>12.215752612708229</v>
+        <v>29.415956505802455</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>17.727942938356442</v>
+        <v>31.7640372787662</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
@@ -191,7 +191,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>3.2259170681955474</v>
+        <v>34.257855442714273</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -205,7 +205,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>2.0684347964530749</v>
+        <v>30.934095646603833</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>9.4043584241022007</v>
+        <v>30.693298240022809</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>5.4872122839011297</v>
+        <v>31.441756861747034</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
@@ -247,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>9.0035282016104965</v>
+        <v>32.745543391442453</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>4.0466953965834707</v>
+        <v>31.468762161095309</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>5.563134468829988</v>
+        <v>29.641657203803394</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>4.6427438858591765</v>
+        <v>30.706180483338958</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1131539804094872</v>
+        <v>31.088782082708889</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
@@ -317,7 +317,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>1.2484606147144179</v>
+        <v>32.101628072176005</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>2.74993011337342</v>
+        <v>32.628603853396868</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>6.3890881919837632</v>
+        <v>32.058498703461865</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>1.9432551768959128</v>
+        <v>31.910453727297021</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>5.8742020433996984</v>
+        <v>29.868455489280382</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>2.4238759775443648</v>
+        <v>30.795206964065375</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>2.3958861441605799</v>
+        <v>28.209242410455527</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>1.0819989031569439</v>
+        <v>29.26068341235661</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>4</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>1.0381566252922283</v>
+        <v>33.429666999767832</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>4</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>1.7757158580346428</v>
+        <v>31.014346202994169</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>1.277947876667431</v>
+        <v>29.556480501294853</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>4</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>1.181466015245304</v>
+        <v>34.332259127991954</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>4</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>1.2406097640291553</v>
+        <v>33.247400842597152</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>4</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>1.4287804937813759</v>
+        <v>31.368414518660348</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>1.2983002430515234</v>
+        <v>30.026679125872779</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>1.1710920485537886</v>
+        <v>31.034163781265807</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>4</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>1.245422547318868</v>
+        <v>37.729126660417897</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>1.2458425025238651</v>
+        <v>35.437380208660834</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>4</v>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>1.1496706760140118</v>
+        <v>30.01216891788005</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>1.6599354397445933</v>
+        <v>34.015224646399176</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>4</v>
@@ -597,10 +597,10 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>1.3601516579964414</v>
+        <v>100</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="0">
         <v>18</v>
